--- a/biology/Neurosciences/Alexis_Kojevnikov/Alexis_Kojevnikov.xlsx
+++ b/biology/Neurosciences/Alexis_Kojevnikov/Alexis_Kojevnikov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexis Iakovlevitch Kojevnikov (en russe : Алексей Яковлевич Кожевников), né en 1836 à Riazan et mort le 23 octobre 1902 à Moscou, est un neurologue et psychiatre russe. Pionnier de la psychiatrie en Russie, il a milité pour un traitement humain des malades mentaux.
 Il a travaillé notamment sur la diplégie spastique ainsi que sur la neuropathologie de l'ophthalmoplegia (en) et de la Bulbar palsy (en). On a donné son nom à l'épilepsie partielle continue.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Natif de Riazan, Kojevnikov étudie la médecine à l'université de Moscou de 1853 à 1858. Il poursuit alors des études en Allemagne, en Suisse, en Angleterre et en France. Il fait d'importantes découvertes sur des corrélations pathologiques dans l'étude de la sclérose latérale amyotrophique au laboratoire de Jean-Martin Charcot, à Paris. En 1869, il retourne à Moscou, où il travaille à l'hôpital Novo-Ekaterininski. À la même époque, il enseigne également les maladies neurologiques et psychiatriques.
 De 1870 à 1884, il est responsable de la clinique des maladies neurologiques. Il devient professeur extraordinaire à partir de 1873.
